--- a/Time Table Feb 2018.xlsx
+++ b/Time Table Feb 2018.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="71">
   <si>
     <t>Time</t>
   </si>
@@ -292,15 +292,75 @@
   <si>
     <t>ทั้งหมดนี้มันแบ่งเวลามาศึกษานอกเวลาได้ แต่อารมณ์ต้องเต็มใจแบ่งปันผลงานจริงๆ นะ ถ้าจะทำมันเอง</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">พิเศษ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>4 สอบ**</t>
+    </r>
+  </si>
+  <si>
+    <t>ดูผลสอบ วิชา Com Sec กับ HCI ดูซิ คะแนนไหวเปล่า</t>
+  </si>
+  <si>
+    <t>สอบ Soft Pat</t>
+  </si>
+  <si>
+    <t>Book</t>
+  </si>
+  <si>
+    <t>สอบ Tech Write</t>
+  </si>
+  <si>
+    <t>สอบ Com Sec</t>
+  </si>
+  <si>
+    <t>Open Book</t>
+  </si>
+  <si>
+    <t>สอบ Lab Phy II</t>
+  </si>
+  <si>
+    <t>Problably Closed Book</t>
+  </si>
+  <si>
+    <t>สอบ Com Pro</t>
+  </si>
+  <si>
+    <t>สอบ Web App</t>
+  </si>
+  <si>
+    <t>สอบ HCI</t>
+  </si>
+  <si>
+    <t>Closed Book</t>
+  </si>
+  <si>
+    <t>Problably Open Book</t>
+  </si>
+  <si>
+    <t>อยากทำงานเกี่ยวกับด้านการเกษตรเป็นอันดับหนึ่งเลย</t>
+  </si>
+  <si>
+    <t>รองลงมาก็ความปลอดภัย</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="187" formatCode="mmm\ yyyy"/>
+    <numFmt numFmtId="188" formatCode="B1d\-mmm"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -344,6 +404,12 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="FreeSans"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -394,7 +460,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="187" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -415,6 +481,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="187" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -12838,15 +12906,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>449580</xdr:colOff>
+      <xdr:colOff>541020</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>405600</xdr:rowOff>
+      <xdr:rowOff>436080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>449220</xdr:colOff>
+      <xdr:colOff>540660</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>375720</xdr:rowOff>
+      <xdr:rowOff>406200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12855,7 +12923,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13708380" y="10570680"/>
+          <a:off x="13799820" y="10601160"/>
           <a:ext cx="662580" cy="412080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13340,15 +13408,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>88560</xdr:colOff>
+      <xdr:colOff>96180</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>428400</xdr:rowOff>
+      <xdr:rowOff>413160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
+      <xdr:colOff>53340</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>398520</xdr:rowOff>
+      <xdr:rowOff>383280</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -13357,7 +13425,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9369720" y="10151520"/>
+          <a:off x="9377340" y="10136280"/>
           <a:ext cx="1283040" cy="412080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13580,15 +13648,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>385920</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>428400</xdr:rowOff>
+      <xdr:colOff>172560</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>24540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>362160</xdr:colOff>
+      <xdr:colOff>148800</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>398520</xdr:rowOff>
+      <xdr:rowOff>436620</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -13597,7 +13665,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10992960" y="10593480"/>
+          <a:off x="10779600" y="10631580"/>
           <a:ext cx="1302120" cy="412080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14732,16 +14800,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>61620</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>526440</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>435960</xdr:rowOff>
+      <xdr:rowOff>405480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>437820</xdr:colOff>
+      <xdr:colOff>239700</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>406080</xdr:rowOff>
+      <xdr:rowOff>375600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -14750,7 +14818,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10005720" y="10601040"/>
+          <a:off x="9807600" y="10570560"/>
           <a:ext cx="1039140" cy="412080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -18398,32 +18466,66 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="4F81BD"/>
-        </a:solidFill>
-        <a:ln w="25560">
-          <a:solidFill>
-            <a:srgbClr val="3A5F8B"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>เรียน Com Sec</a:t>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>เรียน Com Sec </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>สอบ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Mid-term</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>(ไม่ต้องเอาคอม มีให้)</a:t>
           </a:r>
           <a:endParaRPr/>
         </a:p>
@@ -23722,306 +23824,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>96120</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>420840</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>133200</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>390960</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="379" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9643680" y="19623240"/>
-          <a:ext cx="1401120" cy="417600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="4F81BD"/>
-        </a:solidFill>
-        <a:ln w="25560">
-          <a:solidFill>
-            <a:srgbClr val="3A5F8B"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>เรียน Com Pro</a:t>
-          </a:r>
-          <a:endParaRPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>81000</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>420480</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>87480</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>390960</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="380" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9628560" y="18279720"/>
-          <a:ext cx="2052720" cy="417960"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="4F81BD"/>
-        </a:solidFill>
-        <a:ln w="25560">
-          <a:solidFill>
-            <a:srgbClr val="3A5F8B"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>เรียน Soft Pat Lab</a:t>
-          </a:r>
-          <a:endParaRPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>111600</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>435960</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>87840</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>406080</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="381" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6931440" y="18742680"/>
-          <a:ext cx="2022120" cy="417960"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="4F81BD"/>
-        </a:solidFill>
-        <a:ln w="25560">
-          <a:solidFill>
-            <a:srgbClr val="3A5F8B"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>เรียน Com Sec</a:t>
-          </a:r>
-          <a:endParaRPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>88560</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>428400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>45360</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>398520</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="382" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9636120" y="18735120"/>
-          <a:ext cx="2003040" cy="417960"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="4F81BD"/>
-        </a:solidFill>
-        <a:ln w="25560">
-          <a:solidFill>
-            <a:srgbClr val="3A5F8B"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>เรียน HCI</a:t>
-          </a:r>
-          <a:endParaRPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>111600</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>428040</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>87840</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>398520</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="383" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6931440" y="19182600"/>
-          <a:ext cx="2022120" cy="418320"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="4F81BD"/>
-        </a:solidFill>
-        <a:ln w="25560">
-          <a:solidFill>
-            <a:srgbClr val="3A5F8B"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>เรียน Tech Write</a:t>
-          </a:r>
-          <a:endParaRPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>96120</xdr:colOff>
       <xdr:row>45</xdr:row>
@@ -24373,66 +24175,6 @@
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>ออกกำลัง</a:t>
-          </a:r>
-          <a:endParaRPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>111600</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>428400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>445680</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>398520</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="390" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12387240" y="19630800"/>
-          <a:ext cx="1698120" cy="417600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="4F81BD"/>
-        </a:solidFill>
-        <a:ln w="25560">
-          <a:solidFill>
-            <a:srgbClr val="3A5F8B"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>เรียน Lab Phy II</a:t>
           </a:r>
           <a:endParaRPr/>
         </a:p>
@@ -28369,15 +28111,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>655320</xdr:colOff>
+      <xdr:colOff>510540</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>435840</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>49140</xdr:colOff>
+      <xdr:rowOff>420600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>643500</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>405960</xdr:rowOff>
+      <xdr:rowOff>390720</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -28386,8 +28128,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9273540" y="10600920"/>
-          <a:ext cx="719700" cy="412080"/>
+          <a:off x="9128760" y="10585680"/>
+          <a:ext cx="795900" cy="412080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -28565,23 +28307,6 @@
             <a:latin typeface="Calibri"/>
           </a:endParaRPr>
         </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>กลับบ้าน</a:t>
-          </a:r>
-          <a:endParaRPr/>
-        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
@@ -29245,56 +28970,376 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>431280</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>405240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>274320</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>381480</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="471" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5071860" y="17976960"/>
-          <a:ext cx="505980" cy="418200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="4F81BD"/>
-        </a:solidFill>
-        <a:ln w="25560">
-          <a:solidFill>
-            <a:srgbClr val="3A5F8B"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>12360</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>6960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>194160</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>419400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="472" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5978820" y="9730080"/>
+          <a:ext cx="844740" cy="412440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C0504D"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>เดินทาง</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>กลับหอ</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>225840</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>413160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>383280</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="473" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12821700" y="11904120"/>
+          <a:ext cx="1526760" cy="412080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>มีงานรุ่น </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>43 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>หอวังที่ทองหล่อ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Gather</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>428220</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>72000</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>398340</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="467" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8633460" y="10151340"/>
+          <a:ext cx="719700" cy="412080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C0504D"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>รับ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Transcipt</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>435840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>624840</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>405960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="474" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7018020" y="11042880"/>
+          <a:ext cx="1562100" cy="412080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C0504D"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>ทำการบ้าน </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Web App Dev</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>480780</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>372900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>145260</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>349140</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="475" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15065460" y="9654060"/>
+          <a:ext cx="990360" cy="418200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>ผ่อน</a:t>
+          </a:r>
           <a:r>
             <a:rPr lang="th-TH">
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>ใส่บาตร</a:t>
+            <a:t>คล</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>าย อัพอารมณ์ตัวเอง</a:t>
           </a:r>
           <a:endParaRPr>
             <a:solidFill>
@@ -29302,428 +29347,18 @@
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>12360</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>6960</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>194160</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>419400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="472" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5978820" y="9730080"/>
-          <a:ext cx="844740" cy="412440"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="C0504D"/>
-        </a:solidFill>
-        <a:ln w="25560">
-          <a:solidFill>
-            <a:srgbClr val="3A5F8B"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>เดินทาง</a:t>
-          </a:r>
-          <a:endParaRPr/>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>กลับหอ</a:t>
-          </a:r>
-          <a:endParaRPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>225840</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>413160</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>426720</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>383280</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="473" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12821700" y="11904120"/>
-          <a:ext cx="1526760" cy="412080"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2"/>
-        </a:solidFill>
-        <a:ln w="25560">
-          <a:solidFill>
-            <a:srgbClr val="3A5F8B"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>มีงานรุ่น </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>43 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>หอวังที่ทองหล่อ </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>Gather</a:t>
-          </a:r>
-          <a:endParaRPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>428220</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>72000</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>398340</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="467" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8633460" y="10151340"/>
-          <a:ext cx="719700" cy="412080"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="C0504D"/>
-        </a:solidFill>
-        <a:ln w="25560">
-          <a:solidFill>
-            <a:srgbClr val="3A5F8B"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>รับ </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>Transcipt</a:t>
-          </a:r>
-          <a:endParaRPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>403860</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>9120</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>640080</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>421200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="474" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7033260" y="11058120"/>
-          <a:ext cx="1562100" cy="412080"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="C0504D"/>
-        </a:solidFill>
-        <a:ln w="25560">
-          <a:solidFill>
-            <a:srgbClr val="3A5F8B"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>ทำ </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>Resume </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>ใส่ </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>Google Drive </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>ออกแบบให้เหมาะสม</a:t>
-          </a:r>
-          <a:endParaRPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>480780</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>372900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>145260</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>349140</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="475" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15065460" y="9654060"/>
-          <a:ext cx="990360" cy="418200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B050"/>
-        </a:solidFill>
-        <a:ln w="25560">
-          <a:solidFill>
-            <a:srgbClr val="3A5F8B"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>ผ่อน</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="th-TH">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>คล</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>าย อัพอารมณ์ตัวเอง</a:t>
-          </a:r>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:endParaRPr>
             <a:solidFill>
               <a:schemeClr val="bg1"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:endParaRPr>
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
@@ -29850,6 +29485,318 @@
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>คอมเล็ก</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>435840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>405960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="462" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15232380" y="10600920"/>
+          <a:ext cx="914400" cy="412080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C0504D"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>ทำการบ้าน </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Web App Dev</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>19860</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>410820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>495060</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>381300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="471" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11952780" y="10575900"/>
+          <a:ext cx="475200" cy="412440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="77933C"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>คอม</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>ใหญ่</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>420600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>390720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="478" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6416040" y="11911560"/>
+          <a:ext cx="1562100" cy="412080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C0504D"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>ทำ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> Pre-Purposal</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>ที่บ้าน</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>435840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>405960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="479" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9494520" y="11926800"/>
+          <a:ext cx="1562100" cy="412080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C0504D"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>ทำ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> Pre-Purposal</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>ที่หอต่อ</a:t>
           </a:r>
           <a:endParaRPr/>
         </a:p>
@@ -51152,10 +51099,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB53"/>
+  <dimension ref="A1:AB62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" topLeftCell="E17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X20" sqref="X20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -51168,32 +51115,32 @@
       <c r="A1" s="1">
         <v>43132</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="12"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
+      <c r="X1" s="14"/>
+      <c r="Y1" s="14"/>
     </row>
     <row r="2" spans="1:25" ht="35.25" customHeight="1">
       <c r="A2" s="3" t="s">
@@ -51493,32 +51440,32 @@
       <c r="A11" s="1">
         <v>43132</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
-      <c r="U11" s="12"/>
-      <c r="V11" s="12"/>
-      <c r="W11" s="12"/>
-      <c r="X11" s="12"/>
-      <c r="Y11" s="12"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="14"/>
+      <c r="X11" s="14"/>
+      <c r="Y11" s="14"/>
     </row>
     <row r="12" spans="1:25" ht="35.25" customHeight="1">
       <c r="A12" s="3" t="s">
@@ -51815,32 +51762,32 @@
       <c r="A21" s="1">
         <v>43132</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="12"/>
-      <c r="S21" s="12"/>
-      <c r="T21" s="12"/>
-      <c r="U21" s="12"/>
-      <c r="V21" s="12"/>
-      <c r="W21" s="12"/>
-      <c r="X21" s="12"/>
-      <c r="Y21" s="12"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="14"/>
+      <c r="V21" s="14"/>
+      <c r="W21" s="14"/>
+      <c r="X21" s="14"/>
+      <c r="Y21" s="14"/>
     </row>
     <row r="22" spans="1:28" ht="35.25" customHeight="1">
       <c r="A22" s="3" t="s">
@@ -52138,32 +52085,32 @@
       <c r="A31" s="1">
         <v>43132</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="12"/>
-      <c r="O31" s="12"/>
-      <c r="P31" s="12"/>
-      <c r="Q31" s="12"/>
-      <c r="R31" s="12"/>
-      <c r="S31" s="12"/>
-      <c r="T31" s="12"/>
-      <c r="U31" s="12"/>
-      <c r="V31" s="12"/>
-      <c r="W31" s="12"/>
-      <c r="X31" s="12"/>
-      <c r="Y31" s="12"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="14"/>
+      <c r="S31" s="14"/>
+      <c r="T31" s="14"/>
+      <c r="U31" s="14"/>
+      <c r="V31" s="14"/>
+      <c r="W31" s="14"/>
+      <c r="X31" s="14"/>
+      <c r="Y31" s="14"/>
     </row>
     <row r="32" spans="1:28" ht="35.25" customHeight="1">
       <c r="A32" s="3" t="s">
@@ -52449,36 +52396,36 @@
       <c r="A41" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="12"/>
-      <c r="L41" s="12"/>
-      <c r="M41" s="12"/>
-      <c r="N41" s="12"/>
-      <c r="O41" s="12"/>
-      <c r="P41" s="12"/>
-      <c r="Q41" s="12"/>
-      <c r="R41" s="12"/>
-      <c r="S41" s="12"/>
-      <c r="T41" s="12"/>
-      <c r="U41" s="12"/>
-      <c r="V41" s="12"/>
-      <c r="W41" s="12"/>
-      <c r="X41" s="12"/>
-      <c r="Y41" s="12"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="14"/>
+      <c r="N41" s="14"/>
+      <c r="O41" s="14"/>
+      <c r="P41" s="14"/>
+      <c r="Q41" s="14"/>
+      <c r="R41" s="14"/>
+      <c r="S41" s="14"/>
+      <c r="T41" s="14"/>
+      <c r="U41" s="14"/>
+      <c r="V41" s="14"/>
+      <c r="W41" s="14"/>
+      <c r="X41" s="14"/>
+      <c r="Y41" s="14"/>
     </row>
     <row r="42" spans="1:25" ht="35.25" customHeight="1">
-      <c r="A42" s="3" t="s">
-        <v>41</v>
+      <c r="A42" s="12" t="s">
+        <v>55</v>
       </c>
       <c r="B42" s="4">
         <v>0</v>
@@ -52762,8 +52709,76 @@
       </c>
     </row>
     <row r="53" spans="1:25">
+      <c r="D53" t="s">
+        <v>56</v>
+      </c>
       <c r="U53" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25">
+      <c r="D56" t="s">
+        <v>57</v>
+      </c>
+      <c r="F56" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25">
+      <c r="D57" t="s">
+        <v>59</v>
+      </c>
+      <c r="F57" t="s">
+        <v>58</v>
+      </c>
+      <c r="M57" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25">
+      <c r="D58" t="s">
+        <v>60</v>
+      </c>
+      <c r="F58" t="s">
+        <v>61</v>
+      </c>
+      <c r="H58" s="13">
+        <v>43151</v>
+      </c>
+      <c r="M58" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25">
+      <c r="D59" t="s">
+        <v>62</v>
+      </c>
+      <c r="F59" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25">
+      <c r="D60" t="s">
+        <v>64</v>
+      </c>
+      <c r="F60" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25">
+      <c r="D61" t="s">
+        <v>65</v>
+      </c>
+      <c r="F61" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25">
+      <c r="D62" t="s">
+        <v>66</v>
+      </c>
+      <c r="F62" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -52775,8 +52790,8 @@
     <mergeCell ref="B41:Y41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -52797,32 +52812,32 @@
       <c r="A1" s="1">
         <v>43132</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="12"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
+      <c r="X1" s="14"/>
+      <c r="Y1" s="14"/>
     </row>
     <row r="2" spans="1:25">
       <c r="A2" s="3" t="s">
@@ -53108,32 +53123,32 @@
       <c r="A11" s="1">
         <v>43132</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
-      <c r="U11" s="12"/>
-      <c r="V11" s="12"/>
-      <c r="W11" s="12"/>
-      <c r="X11" s="12"/>
-      <c r="Y11" s="12"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="14"/>
+      <c r="X11" s="14"/>
+      <c r="Y11" s="14"/>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" s="3" t="s">
@@ -53419,32 +53434,32 @@
       <c r="A21" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="12"/>
-      <c r="S21" s="12"/>
-      <c r="T21" s="12"/>
-      <c r="U21" s="12"/>
-      <c r="V21" s="12"/>
-      <c r="W21" s="12"/>
-      <c r="X21" s="12"/>
-      <c r="Y21" s="12"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="14"/>
+      <c r="V21" s="14"/>
+      <c r="W21" s="14"/>
+      <c r="X21" s="14"/>
+      <c r="Y21" s="14"/>
     </row>
     <row r="22" spans="1:25">
       <c r="A22" s="3" t="s">
@@ -53730,32 +53745,32 @@
       <c r="A33" s="1">
         <v>43132</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="12"/>
-      <c r="N33" s="12"/>
-      <c r="O33" s="12"/>
-      <c r="P33" s="12"/>
-      <c r="Q33" s="12"/>
-      <c r="R33" s="12"/>
-      <c r="S33" s="12"/>
-      <c r="T33" s="12"/>
-      <c r="U33" s="12"/>
-      <c r="V33" s="12"/>
-      <c r="W33" s="12"/>
-      <c r="X33" s="12"/>
-      <c r="Y33" s="12"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="14"/>
+      <c r="O33" s="14"/>
+      <c r="P33" s="14"/>
+      <c r="Q33" s="14"/>
+      <c r="R33" s="14"/>
+      <c r="S33" s="14"/>
+      <c r="T33" s="14"/>
+      <c r="U33" s="14"/>
+      <c r="V33" s="14"/>
+      <c r="W33" s="14"/>
+      <c r="X33" s="14"/>
+      <c r="Y33" s="14"/>
     </row>
     <row r="34" spans="1:25">
       <c r="A34" s="3" t="s">

--- a/Time Table Feb 2018.xlsx
+++ b/Time Table Feb 2018.xlsx
@@ -631,9 +631,6 @@
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="187" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -656,6 +653,9 @@
     <xf numFmtId="187" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -13075,16 +13075,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>488880</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>115500</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>404280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>670320</xdr:colOff>
+      <xdr:rowOff>396660</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>289320</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>374040</xdr:rowOff>
+      <xdr:rowOff>366420</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -13093,8 +13093,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12764520" y="11595960"/>
-          <a:ext cx="863280" cy="417600"/>
+          <a:off x="12711360" y="11445660"/>
+          <a:ext cx="836760" cy="411720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14746,13 +14746,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>199440</xdr:colOff>
+      <xdr:colOff>161340</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>419400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>152280</xdr:colOff>
+      <xdr:colOff>114180</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>389160</xdr:rowOff>
     </xdr:to>
@@ -14763,8 +14763,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15203160" y="11611080"/>
-          <a:ext cx="1316880" cy="417600"/>
+          <a:off x="14746020" y="11468400"/>
+          <a:ext cx="1278720" cy="411720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -28871,7 +28871,7 @@
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>มีงานรุ่น 43 หอวังที่ทองหล่อ Gather</a:t>
+            <a:t>มีงานรุ่น 43 หอวังที่ทองหล่อ Gather (Optional)</a:t>
           </a:r>
           <a:endParaRPr/>
         </a:p>
@@ -29394,15 +29394,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>510540</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>213360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>289560</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>624840</xdr:colOff>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>440940</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -29412,7 +29412,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9128760" y="11262360"/>
+          <a:off x="6812280" y="11704320"/>
           <a:ext cx="1767840" cy="227580"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -29466,64 +29466,9 @@
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>ถ้าเสร็จแล้ว</a:t>
+            <a:t>ถ้าไม่มีไรทำ</a:t>
           </a:r>
           <a:endParaRPr sz="900"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>573060</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>404460</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>379980</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="466" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15820680" y="11011500"/>
-          <a:ext cx="813780" cy="417480"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="C0504D"/>
-        </a:solidFill>
-        <a:ln w="25560">
-          <a:solidFill>
-            <a:srgbClr val="3A5F8B"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>เขียนเรซูเม่ญี่ปุ่นไอโอที</a:t>
-          </a:r>
-          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -29600,6 +29545,88 @@
             </a:lnSpc>
           </a:pPr>
           <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>236220</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>21840</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="468" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9677400" y="11727180"/>
+          <a:ext cx="1767840" cy="227580"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C0504D"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="th-TH" sz="900">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>ทำการบ้าน</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="900" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="900" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Com Pro </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="900" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>ถ้าไม่มีไรทำ</a:t>
+          </a:r>
+          <a:endParaRPr sz="900"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -50902,8 +50929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+    <sheetView tabSelected="1" topLeftCell="G20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -50913,1612 +50940,1612 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="35.25" customHeight="1">
-      <c r="A1" s="2">
+      <c r="A1" s="1">
         <v>43132</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
     </row>
     <row r="2" spans="1:25" ht="35.25" customHeight="1">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>0</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>1</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>2</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <v>3</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="4">
         <v>4</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="4">
         <v>5</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="4">
         <v>6</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="4">
         <v>7</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="4">
         <v>8</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="4">
         <v>9</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="4">
         <v>10</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M2" s="4">
         <v>11</v>
       </c>
-      <c r="N2" s="5">
+      <c r="N2" s="4">
         <v>12</v>
       </c>
-      <c r="O2" s="5">
+      <c r="O2" s="4">
         <v>13</v>
       </c>
-      <c r="P2" s="5">
+      <c r="P2" s="4">
         <v>14</v>
       </c>
-      <c r="Q2" s="5">
+      <c r="Q2" s="4">
         <v>15</v>
       </c>
-      <c r="R2" s="5">
+      <c r="R2" s="4">
         <v>16</v>
       </c>
-      <c r="S2" s="5">
+      <c r="S2" s="4">
         <v>17</v>
       </c>
-      <c r="T2" s="5">
+      <c r="T2" s="4">
         <v>18</v>
       </c>
-      <c r="U2" s="5">
+      <c r="U2" s="4">
         <v>19</v>
       </c>
-      <c r="V2" s="5">
+      <c r="V2" s="4">
         <v>20</v>
       </c>
-      <c r="W2" s="5">
+      <c r="W2" s="4">
         <v>21</v>
       </c>
-      <c r="X2" s="5">
+      <c r="X2" s="4">
         <v>22</v>
       </c>
-      <c r="Y2" s="5">
+      <c r="Y2" s="4">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="35.25" customHeight="1">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
     </row>
     <row r="4" spans="1:25" ht="35.25" customHeight="1">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
     </row>
     <row r="5" spans="1:25" ht="35.25" customHeight="1">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="4"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
     </row>
     <row r="6" spans="1:25" ht="35.25" customHeight="1">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
     </row>
     <row r="7" spans="1:25" ht="35.25" customHeight="1">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
     </row>
     <row r="8" spans="1:25" ht="35.25" customHeight="1">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
     </row>
     <row r="9" spans="1:25" ht="35.25" customHeight="1">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="4"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
     </row>
     <row r="10" spans="1:25" ht="35.25" customHeight="1">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="L10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="R10" s="8" t="s">
+      <c r="R10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="U10" s="9" t="s">
+      <c r="U10" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="35.25" customHeight="1">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>43132</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="15"/>
+      <c r="Y11" s="15"/>
     </row>
     <row r="12" spans="1:25" ht="35.25" customHeight="1">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>0</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>1</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>2</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <v>3</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="4">
         <v>4</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="4">
         <v>5</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="4">
         <v>6</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="4">
         <v>7</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="4">
         <v>8</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="4">
         <v>9</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L12" s="4">
         <v>10</v>
       </c>
-      <c r="M12" s="5">
+      <c r="M12" s="4">
         <v>11</v>
       </c>
-      <c r="N12" s="5">
+      <c r="N12" s="4">
         <v>12</v>
       </c>
-      <c r="O12" s="5">
+      <c r="O12" s="4">
         <v>13</v>
       </c>
-      <c r="P12" s="5">
+      <c r="P12" s="4">
         <v>14</v>
       </c>
-      <c r="Q12" s="5">
+      <c r="Q12" s="4">
         <v>15</v>
       </c>
-      <c r="R12" s="5">
+      <c r="R12" s="4">
         <v>16</v>
       </c>
-      <c r="S12" s="5">
+      <c r="S12" s="4">
         <v>17</v>
       </c>
-      <c r="T12" s="5">
+      <c r="T12" s="4">
         <v>18</v>
       </c>
-      <c r="U12" s="5">
+      <c r="U12" s="4">
         <v>19</v>
       </c>
-      <c r="V12" s="5">
+      <c r="V12" s="4">
         <v>20</v>
       </c>
-      <c r="W12" s="5">
+      <c r="W12" s="4">
         <v>21</v>
       </c>
-      <c r="X12" s="5">
+      <c r="X12" s="4">
         <v>22</v>
       </c>
-      <c r="Y12" s="5">
+      <c r="Y12" s="4">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="35.25" customHeight="1">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="4"/>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="4"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
     </row>
     <row r="14" spans="1:25" ht="35.25" customHeight="1">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
     </row>
     <row r="15" spans="1:25" ht="35.25" customHeight="1">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
     </row>
     <row r="16" spans="1:25" ht="35.25" customHeight="1">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4"/>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="4"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
     </row>
     <row r="17" spans="1:28" ht="35.25" customHeight="1">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
     </row>
     <row r="18" spans="1:28" ht="35.25" customHeight="1">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="4"/>
-      <c r="Z18" s="10" t="s">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:28" ht="35.25" customHeight="1">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
-      <c r="W19" s="4"/>
-      <c r="X19" s="4"/>
-      <c r="Y19" s="4"/>
-      <c r="Z19" s="11" t="s">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="10" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:28" ht="35.25" customHeight="1">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:28" ht="35.25" customHeight="1">
-      <c r="A21" s="2">
+      <c r="A21" s="1">
         <v>43132</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
-      <c r="V21" s="1"/>
-      <c r="W21" s="1"/>
-      <c r="X21" s="1"/>
-      <c r="Y21" s="1"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="15"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="15"/>
+      <c r="U21" s="15"/>
+      <c r="V21" s="15"/>
+      <c r="W21" s="15"/>
+      <c r="X21" s="15"/>
+      <c r="Y21" s="15"/>
     </row>
     <row r="22" spans="1:28" ht="35.25" customHeight="1">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="4">
         <v>0</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="4">
         <v>1</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="4">
         <v>2</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="4">
         <v>3</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="4">
         <v>4</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="4">
         <v>5</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22" s="4">
         <v>6</v>
       </c>
-      <c r="I22" s="5">
+      <c r="I22" s="4">
         <v>7</v>
       </c>
-      <c r="J22" s="5">
+      <c r="J22" s="4">
         <v>8</v>
       </c>
-      <c r="K22" s="5">
+      <c r="K22" s="4">
         <v>9</v>
       </c>
-      <c r="L22" s="5">
+      <c r="L22" s="4">
         <v>10</v>
       </c>
-      <c r="M22" s="5">
+      <c r="M22" s="4">
         <v>11</v>
       </c>
-      <c r="N22" s="5">
+      <c r="N22" s="4">
         <v>12</v>
       </c>
-      <c r="O22" s="5">
+      <c r="O22" s="4">
         <v>13</v>
       </c>
-      <c r="P22" s="5">
+      <c r="P22" s="4">
         <v>14</v>
       </c>
-      <c r="Q22" s="5">
+      <c r="Q22" s="4">
         <v>15</v>
       </c>
-      <c r="R22" s="5">
+      <c r="R22" s="4">
         <v>16</v>
       </c>
-      <c r="S22" s="5">
+      <c r="S22" s="4">
         <v>17</v>
       </c>
-      <c r="T22" s="5">
+      <c r="T22" s="4">
         <v>18</v>
       </c>
-      <c r="U22" s="5">
+      <c r="U22" s="4">
         <v>19</v>
       </c>
-      <c r="V22" s="5">
+      <c r="V22" s="4">
         <v>20</v>
       </c>
-      <c r="W22" s="5">
+      <c r="W22" s="4">
         <v>21</v>
       </c>
-      <c r="X22" s="5">
+      <c r="X22" s="4">
         <v>22</v>
       </c>
-      <c r="Y22" s="5">
+      <c r="Y22" s="4">
         <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:28" ht="35.25" customHeight="1">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="4"/>
-      <c r="U23" s="4"/>
-      <c r="V23" s="4"/>
-      <c r="W23" s="4"/>
-      <c r="X23" s="4"/>
-      <c r="Y23" s="4"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
     </row>
     <row r="24" spans="1:28" ht="35.25" customHeight="1">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="4"/>
-      <c r="U24" s="4"/>
-      <c r="V24" s="4"/>
-      <c r="W24" s="4"/>
-      <c r="X24" s="4"/>
-      <c r="Y24" s="4"/>
-      <c r="Z24" s="12" t="s">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:28" ht="35.25" customHeight="1">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
-      <c r="S25" s="4"/>
-      <c r="T25" s="4"/>
-      <c r="U25" s="4"/>
-      <c r="V25" s="4"/>
-      <c r="W25" s="4"/>
-      <c r="X25" s="4"/>
-      <c r="Y25" s="4"/>
-      <c r="Z25" s="12" t="s">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="11" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:28" ht="35.25" customHeight="1">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
-      <c r="S26" s="4"/>
-      <c r="T26" s="4"/>
-      <c r="U26" s="4"/>
-      <c r="V26" s="4"/>
-      <c r="W26" s="4"/>
-      <c r="X26" s="4"/>
-      <c r="Y26" s="4"/>
-      <c r="Z26" s="12" t="s">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="11" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:28" ht="35.25" customHeight="1">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="4"/>
-      <c r="S27" s="4"/>
-      <c r="T27" s="4"/>
-      <c r="U27" s="4"/>
-      <c r="V27" s="4"/>
-      <c r="W27" s="4"/>
-      <c r="X27" s="4"/>
-      <c r="Y27" s="4"/>
-      <c r="AB27" s="12" t="s">
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="AB27" s="11" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:28" ht="35.25" customHeight="1">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
-      <c r="S28" s="4"/>
-      <c r="T28" s="4"/>
-      <c r="U28" s="4"/>
-      <c r="V28" s="4"/>
-      <c r="W28" s="4"/>
-      <c r="X28" s="4"/>
-      <c r="Y28" s="4"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
     </row>
     <row r="29" spans="1:28" ht="35.25" customHeight="1">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
-      <c r="S29" s="4"/>
-      <c r="T29" s="4"/>
-      <c r="U29" s="4"/>
-      <c r="V29" s="4"/>
-      <c r="W29" s="4"/>
-      <c r="X29" s="4"/>
-      <c r="Y29" s="4"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
     </row>
     <row r="31" spans="1:28" ht="35.25" customHeight="1">
-      <c r="A31" s="2">
+      <c r="A31" s="1">
         <v>43132</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
-      <c r="S31" s="1"/>
-      <c r="T31" s="1"/>
-      <c r="U31" s="1"/>
-      <c r="V31" s="1"/>
-      <c r="W31" s="1"/>
-      <c r="X31" s="1"/>
-      <c r="Y31" s="1"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="15"/>
+      <c r="R31" s="15"/>
+      <c r="S31" s="15"/>
+      <c r="T31" s="15"/>
+      <c r="U31" s="15"/>
+      <c r="V31" s="15"/>
+      <c r="W31" s="15"/>
+      <c r="X31" s="15"/>
+      <c r="Y31" s="15"/>
     </row>
     <row r="32" spans="1:28" ht="35.25" customHeight="1">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="4">
         <v>0</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="4">
         <v>1</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="4">
         <v>2</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E32" s="4">
         <v>3</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F32" s="4">
         <v>4</v>
       </c>
-      <c r="G32" s="5">
+      <c r="G32" s="4">
         <v>5</v>
       </c>
-      <c r="H32" s="5">
+      <c r="H32" s="4">
         <v>6</v>
       </c>
-      <c r="I32" s="5">
+      <c r="I32" s="4">
         <v>7</v>
       </c>
-      <c r="J32" s="5">
+      <c r="J32" s="4">
         <v>8</v>
       </c>
-      <c r="K32" s="5">
+      <c r="K32" s="4">
         <v>9</v>
       </c>
-      <c r="L32" s="5">
+      <c r="L32" s="4">
         <v>10</v>
       </c>
-      <c r="M32" s="5">
+      <c r="M32" s="4">
         <v>11</v>
       </c>
-      <c r="N32" s="5">
+      <c r="N32" s="4">
         <v>12</v>
       </c>
-      <c r="O32" s="5">
+      <c r="O32" s="4">
         <v>13</v>
       </c>
-      <c r="P32" s="5">
+      <c r="P32" s="4">
         <v>14</v>
       </c>
-      <c r="Q32" s="5">
+      <c r="Q32" s="4">
         <v>15</v>
       </c>
-      <c r="R32" s="5">
+      <c r="R32" s="4">
         <v>16</v>
       </c>
-      <c r="S32" s="5">
+      <c r="S32" s="4">
         <v>17</v>
       </c>
-      <c r="T32" s="5">
+      <c r="T32" s="4">
         <v>18</v>
       </c>
-      <c r="U32" s="5">
+      <c r="U32" s="4">
         <v>19</v>
       </c>
-      <c r="V32" s="5">
+      <c r="V32" s="4">
         <v>20</v>
       </c>
-      <c r="W32" s="5">
+      <c r="W32" s="4">
         <v>21</v>
       </c>
-      <c r="X32" s="5">
+      <c r="X32" s="4">
         <v>22</v>
       </c>
-      <c r="Y32" s="5">
+      <c r="Y32" s="4">
         <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:25" ht="35.25" customHeight="1">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
-      <c r="O33" s="4"/>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="4"/>
-      <c r="S33" s="4"/>
-      <c r="T33" s="4"/>
-      <c r="U33" s="4"/>
-      <c r="V33" s="4"/>
-      <c r="W33" s="4"/>
-      <c r="X33" s="4"/>
-      <c r="Y33" s="4"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
     </row>
     <row r="34" spans="1:25" ht="35.25" customHeight="1">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
-      <c r="O34" s="4"/>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="4"/>
-      <c r="S34" s="4"/>
-      <c r="T34" s="4"/>
-      <c r="U34" s="4"/>
-      <c r="V34" s="4"/>
-      <c r="W34" s="4"/>
-      <c r="X34" s="4"/>
-      <c r="Y34" s="4"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
     </row>
     <row r="35" spans="1:25" ht="35.25" customHeight="1">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="4"/>
-      <c r="R35" s="4"/>
-      <c r="S35" s="4"/>
-      <c r="T35" s="4"/>
-      <c r="U35" s="4"/>
-      <c r="V35" s="4"/>
-      <c r="W35" s="4"/>
-      <c r="X35" s="4"/>
-      <c r="Y35" s="4"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="3"/>
+      <c r="W35" s="3"/>
+      <c r="X35" s="3"/>
+      <c r="Y35" s="3"/>
     </row>
     <row r="36" spans="1:25" ht="35.25" customHeight="1">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
-      <c r="O36" s="4"/>
-      <c r="P36" s="4"/>
-      <c r="Q36" s="4"/>
-      <c r="R36" s="4"/>
-      <c r="S36" s="4"/>
-      <c r="T36" s="4"/>
-      <c r="U36" s="4"/>
-      <c r="V36" s="4"/>
-      <c r="W36" s="4"/>
-      <c r="X36" s="4"/>
-      <c r="Y36" s="4"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="3"/>
+      <c r="W36" s="3"/>
+      <c r="X36" s="3"/>
+      <c r="Y36" s="3"/>
     </row>
     <row r="37" spans="1:25" ht="35.25" customHeight="1">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
-      <c r="N37" s="4"/>
-      <c r="O37" s="4"/>
-      <c r="P37" s="4"/>
-      <c r="Q37" s="4"/>
-      <c r="R37" s="4"/>
-      <c r="S37" s="4"/>
-      <c r="T37" s="4"/>
-      <c r="U37" s="4"/>
-      <c r="V37" s="4"/>
-      <c r="W37" s="4"/>
-      <c r="X37" s="4"/>
-      <c r="Y37" s="4"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
+      <c r="V37" s="3"/>
+      <c r="W37" s="3"/>
+      <c r="X37" s="3"/>
+      <c r="Y37" s="3"/>
     </row>
     <row r="38" spans="1:25" ht="35.25" customHeight="1">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
-      <c r="N38" s="4"/>
-      <c r="O38" s="4"/>
-      <c r="P38" s="4"/>
-      <c r="Q38" s="4"/>
-      <c r="R38" s="4"/>
-      <c r="S38" s="4"/>
-      <c r="T38" s="4"/>
-      <c r="U38" s="4"/>
-      <c r="V38" s="4"/>
-      <c r="W38" s="4"/>
-      <c r="X38" s="4"/>
-      <c r="Y38" s="4"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
+      <c r="V38" s="3"/>
+      <c r="W38" s="3"/>
+      <c r="X38" s="3"/>
+      <c r="Y38" s="3"/>
     </row>
     <row r="39" spans="1:25" ht="35.25" customHeight="1">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
-      <c r="M39" s="4"/>
-      <c r="N39" s="4"/>
-      <c r="O39" s="4"/>
-      <c r="P39" s="4"/>
-      <c r="Q39" s="4"/>
-      <c r="R39" s="4"/>
-      <c r="S39" s="4"/>
-      <c r="T39" s="4"/>
-      <c r="U39" s="4"/>
-      <c r="V39" s="4"/>
-      <c r="W39" s="4"/>
-      <c r="X39" s="4"/>
-      <c r="Y39" s="4"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
     </row>
     <row r="41" spans="1:25" ht="35.25" customHeight="1">
-      <c r="A41" s="13" t="s">
+      <c r="A41" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
-      <c r="Q41" s="1"/>
-      <c r="R41" s="1"/>
-      <c r="S41" s="1"/>
-      <c r="T41" s="1"/>
-      <c r="U41" s="1"/>
-      <c r="V41" s="1"/>
-      <c r="W41" s="1"/>
-      <c r="X41" s="1"/>
-      <c r="Y41" s="1"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="15"/>
+      <c r="L41" s="15"/>
+      <c r="M41" s="15"/>
+      <c r="N41" s="15"/>
+      <c r="O41" s="15"/>
+      <c r="P41" s="15"/>
+      <c r="Q41" s="15"/>
+      <c r="R41" s="15"/>
+      <c r="S41" s="15"/>
+      <c r="T41" s="15"/>
+      <c r="U41" s="15"/>
+      <c r="V41" s="15"/>
+      <c r="W41" s="15"/>
+      <c r="X41" s="15"/>
+      <c r="Y41" s="15"/>
     </row>
     <row r="42" spans="1:25" ht="35.25" customHeight="1">
-      <c r="A42" s="14" t="s">
+      <c r="A42" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B42" s="5">
+      <c r="B42" s="4">
         <v>0</v>
       </c>
-      <c r="C42" s="5">
+      <c r="C42" s="4">
         <v>1</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D42" s="4">
         <v>2</v>
       </c>
-      <c r="E42" s="5">
+      <c r="E42" s="4">
         <v>3</v>
       </c>
-      <c r="F42" s="5">
+      <c r="F42" s="4">
         <v>4</v>
       </c>
-      <c r="G42" s="5">
+      <c r="G42" s="4">
         <v>5</v>
       </c>
-      <c r="H42" s="5">
+      <c r="H42" s="4">
         <v>6</v>
       </c>
-      <c r="I42" s="5">
+      <c r="I42" s="4">
         <v>7</v>
       </c>
-      <c r="J42" s="5">
+      <c r="J42" s="4">
         <v>8</v>
       </c>
-      <c r="K42" s="5">
+      <c r="K42" s="4">
         <v>9</v>
       </c>
-      <c r="L42" s="5">
+      <c r="L42" s="4">
         <v>10</v>
       </c>
-      <c r="M42" s="5">
+      <c r="M42" s="4">
         <v>11</v>
       </c>
-      <c r="N42" s="5">
+      <c r="N42" s="4">
         <v>12</v>
       </c>
-      <c r="O42" s="5">
+      <c r="O42" s="4">
         <v>13</v>
       </c>
-      <c r="P42" s="5">
+      <c r="P42" s="4">
         <v>14</v>
       </c>
-      <c r="Q42" s="5">
+      <c r="Q42" s="4">
         <v>15</v>
       </c>
-      <c r="R42" s="5">
+      <c r="R42" s="4">
         <v>16</v>
       </c>
-      <c r="S42" s="5">
+      <c r="S42" s="4">
         <v>17</v>
       </c>
-      <c r="T42" s="5">
+      <c r="T42" s="4">
         <v>18</v>
       </c>
-      <c r="U42" s="5">
+      <c r="U42" s="4">
         <v>19</v>
       </c>
-      <c r="V42" s="5">
+      <c r="V42" s="4">
         <v>20</v>
       </c>
-      <c r="W42" s="5">
+      <c r="W42" s="4">
         <v>21</v>
       </c>
-      <c r="X42" s="5">
+      <c r="X42" s="4">
         <v>22</v>
       </c>
-      <c r="Y42" s="5">
+      <c r="Y42" s="4">
         <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:25" ht="35.25" customHeight="1">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
-      <c r="M43" s="4"/>
-      <c r="N43" s="4"/>
-      <c r="O43" s="4"/>
-      <c r="P43" s="4"/>
-      <c r="Q43" s="4"/>
-      <c r="R43" s="4"/>
-      <c r="S43" s="4"/>
-      <c r="T43" s="4"/>
-      <c r="U43" s="4"/>
-      <c r="V43" s="4"/>
-      <c r="W43" s="4"/>
-      <c r="X43" s="4"/>
-      <c r="Y43" s="4"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="3"/>
+      <c r="U43" s="3"/>
+      <c r="V43" s="3"/>
+      <c r="W43" s="3"/>
+      <c r="X43" s="3"/>
+      <c r="Y43" s="3"/>
     </row>
     <row r="44" spans="1:25" ht="35.25" customHeight="1">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
-      <c r="M44" s="4"/>
-      <c r="N44" s="4"/>
-      <c r="O44" s="4"/>
-      <c r="P44" s="4"/>
-      <c r="Q44" s="4"/>
-      <c r="R44" s="4"/>
-      <c r="S44" s="4"/>
-      <c r="T44" s="4"/>
-      <c r="U44" s="4"/>
-      <c r="V44" s="4"/>
-      <c r="W44" s="4"/>
-      <c r="X44" s="4"/>
-      <c r="Y44" s="4"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="3"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="3"/>
+      <c r="U44" s="3"/>
+      <c r="V44" s="3"/>
+      <c r="W44" s="3"/>
+      <c r="X44" s="3"/>
+      <c r="Y44" s="3"/>
     </row>
     <row r="45" spans="1:25" ht="35.25" customHeight="1">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
-      <c r="L45" s="4"/>
-      <c r="M45" s="4"/>
-      <c r="N45" s="4"/>
-      <c r="O45" s="4"/>
-      <c r="P45" s="4"/>
-      <c r="Q45" s="4"/>
-      <c r="R45" s="4"/>
-      <c r="S45" s="4"/>
-      <c r="T45" s="4"/>
-      <c r="U45" s="4"/>
-      <c r="V45" s="4"/>
-      <c r="W45" s="4"/>
-      <c r="X45" s="4"/>
-      <c r="Y45" s="4"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="3"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="3"/>
+      <c r="U45" s="3"/>
+      <c r="V45" s="3"/>
+      <c r="W45" s="3"/>
+      <c r="X45" s="3"/>
+      <c r="Y45" s="3"/>
     </row>
     <row r="46" spans="1:25" ht="35.25" customHeight="1">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="4"/>
-      <c r="M46" s="4"/>
-      <c r="N46" s="4"/>
-      <c r="O46" s="4"/>
-      <c r="P46" s="4"/>
-      <c r="Q46" s="4"/>
-      <c r="R46" s="4"/>
-      <c r="S46" s="4"/>
-      <c r="T46" s="4"/>
-      <c r="U46" s="4"/>
-      <c r="V46" s="4"/>
-      <c r="W46" s="4"/>
-      <c r="X46" s="4"/>
-      <c r="Y46" s="4"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="3"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="3"/>
+      <c r="U46" s="3"/>
+      <c r="V46" s="3"/>
+      <c r="W46" s="3"/>
+      <c r="X46" s="3"/>
+      <c r="Y46" s="3"/>
     </row>
     <row r="47" spans="1:25" ht="35.25" customHeight="1">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
-      <c r="L47" s="4"/>
-      <c r="M47" s="4"/>
-      <c r="N47" s="4"/>
-      <c r="O47" s="4"/>
-      <c r="P47" s="4"/>
-      <c r="Q47" s="4"/>
-      <c r="R47" s="4"/>
-      <c r="S47" s="4"/>
-      <c r="T47" s="4"/>
-      <c r="U47" s="4"/>
-      <c r="V47" s="4"/>
-      <c r="W47" s="4"/>
-      <c r="X47" s="4"/>
-      <c r="Y47" s="4"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+      <c r="P47" s="3"/>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="3"/>
+      <c r="S47" s="3"/>
+      <c r="T47" s="3"/>
+      <c r="U47" s="3"/>
+      <c r="V47" s="3"/>
+      <c r="W47" s="3"/>
+      <c r="X47" s="3"/>
+      <c r="Y47" s="3"/>
     </row>
     <row r="48" spans="1:25" ht="35.25" customHeight="1">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
-      <c r="K48" s="4"/>
-      <c r="L48" s="4"/>
-      <c r="M48" s="4"/>
-      <c r="N48" s="4"/>
-      <c r="O48" s="4"/>
-      <c r="P48" s="4"/>
-      <c r="Q48" s="4"/>
-      <c r="R48" s="4"/>
-      <c r="S48" s="4"/>
-      <c r="T48" s="4"/>
-      <c r="U48" s="4"/>
-      <c r="V48" s="4"/>
-      <c r="W48" s="4"/>
-      <c r="X48" s="4"/>
-      <c r="Y48" s="4"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
+      <c r="P48" s="3"/>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="3"/>
+      <c r="S48" s="3"/>
+      <c r="T48" s="3"/>
+      <c r="U48" s="3"/>
+      <c r="V48" s="3"/>
+      <c r="W48" s="3"/>
+      <c r="X48" s="3"/>
+      <c r="Y48" s="3"/>
     </row>
     <row r="49" spans="1:25" ht="35.25" customHeight="1">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
-      <c r="K49" s="4"/>
-      <c r="L49" s="4"/>
-      <c r="M49" s="4"/>
-      <c r="N49" s="4"/>
-      <c r="O49" s="4"/>
-      <c r="P49" s="4"/>
-      <c r="Q49" s="4"/>
-      <c r="R49" s="4"/>
-      <c r="S49" s="4"/>
-      <c r="T49" s="4"/>
-      <c r="U49" s="4"/>
-      <c r="V49" s="4"/>
-      <c r="W49" s="4"/>
-      <c r="X49" s="4"/>
-      <c r="Y49" s="4"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
+      <c r="P49" s="3"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="3"/>
+      <c r="S49" s="3"/>
+      <c r="T49" s="3"/>
+      <c r="U49" s="3"/>
+      <c r="V49" s="3"/>
+      <c r="W49" s="3"/>
+      <c r="X49" s="3"/>
+      <c r="Y49" s="3"/>
     </row>
     <row r="52" spans="1:25">
-      <c r="U52" s="12" t="s">
+      <c r="U52" s="11" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:25">
-      <c r="D53" s="12" t="s">
+      <c r="D53" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="U53" s="12" t="s">
+      <c r="U53" s="11" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:25">
-      <c r="D56" s="12" t="s">
+      <c r="D56" s="11" t="s">
         <v>56</v>
       </c>
       <c r="F56" t="s">
@@ -52526,32 +52553,32 @@
       </c>
     </row>
     <row r="57" spans="1:25">
-      <c r="D57" s="12" t="s">
+      <c r="D57" s="11" t="s">
         <v>58</v>
       </c>
       <c r="F57" t="s">
         <v>59</v>
       </c>
-      <c r="M57" s="12" t="s">
+      <c r="M57" s="11" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="58" spans="1:25">
-      <c r="D58" s="12" t="s">
+      <c r="D58" s="11" t="s">
         <v>61</v>
       </c>
       <c r="F58" t="s">
         <v>62</v>
       </c>
-      <c r="H58" s="15">
+      <c r="H58" s="14">
         <v>43151</v>
       </c>
-      <c r="M58" s="12" t="s">
+      <c r="M58" s="11" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="59" spans="1:25">
-      <c r="D59" s="12" t="s">
+      <c r="D59" s="11" t="s">
         <v>64</v>
       </c>
       <c r="F59" t="s">
@@ -52559,7 +52586,7 @@
       </c>
     </row>
     <row r="60" spans="1:25">
-      <c r="D60" s="12" t="s">
+      <c r="D60" s="11" t="s">
         <v>66</v>
       </c>
       <c r="F60" t="s">
@@ -52567,7 +52594,7 @@
       </c>
     </row>
     <row r="61" spans="1:25">
-      <c r="D61" s="12" t="s">
+      <c r="D61" s="11" t="s">
         <v>67</v>
       </c>
       <c r="F61" t="s">
@@ -52575,7 +52602,7 @@
       </c>
     </row>
     <row r="62" spans="1:25">
-      <c r="D62" s="12" t="s">
+      <c r="D62" s="11" t="s">
         <v>68</v>
       </c>
       <c r="F62" t="s">
@@ -52610,1248 +52637,1248 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
-      <c r="A1" s="2">
+      <c r="A1" s="1">
         <v>43132</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
     </row>
     <row r="2" spans="1:25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>0</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>1</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>2</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <v>3</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="4">
         <v>4</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="4">
         <v>5</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="4">
         <v>6</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="4">
         <v>7</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="4">
         <v>8</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="4">
         <v>9</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="4">
         <v>10</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M2" s="4">
         <v>11</v>
       </c>
-      <c r="N2" s="5">
+      <c r="N2" s="4">
         <v>12</v>
       </c>
-      <c r="O2" s="5">
+      <c r="O2" s="4">
         <v>13</v>
       </c>
-      <c r="P2" s="5">
+      <c r="P2" s="4">
         <v>14</v>
       </c>
-      <c r="Q2" s="5">
+      <c r="Q2" s="4">
         <v>15</v>
       </c>
-      <c r="R2" s="5">
+      <c r="R2" s="4">
         <v>16</v>
       </c>
-      <c r="S2" s="5">
+      <c r="S2" s="4">
         <v>17</v>
       </c>
-      <c r="T2" s="5">
+      <c r="T2" s="4">
         <v>18</v>
       </c>
-      <c r="U2" s="5">
+      <c r="U2" s="4">
         <v>19</v>
       </c>
-      <c r="V2" s="5">
+      <c r="V2" s="4">
         <v>20</v>
       </c>
-      <c r="W2" s="5">
+      <c r="W2" s="4">
         <v>21</v>
       </c>
-      <c r="X2" s="5">
+      <c r="X2" s="4">
         <v>22</v>
       </c>
-      <c r="Y2" s="5">
+      <c r="Y2" s="4">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
     </row>
     <row r="4" spans="1:25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
     </row>
     <row r="5" spans="1:25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="4"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
     </row>
     <row r="6" spans="1:25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
     </row>
     <row r="7" spans="1:25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
     </row>
     <row r="8" spans="1:25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
     </row>
     <row r="9" spans="1:25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="4"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
     </row>
     <row r="11" spans="1:25">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>43132</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="15"/>
+      <c r="Y11" s="15"/>
     </row>
     <row r="12" spans="1:25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>0</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>1</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>2</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <v>3</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="4">
         <v>4</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="4">
         <v>5</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="4">
         <v>6</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="4">
         <v>7</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="4">
         <v>8</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="4">
         <v>9</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L12" s="4">
         <v>10</v>
       </c>
-      <c r="M12" s="5">
+      <c r="M12" s="4">
         <v>11</v>
       </c>
-      <c r="N12" s="5">
+      <c r="N12" s="4">
         <v>12</v>
       </c>
-      <c r="O12" s="5">
+      <c r="O12" s="4">
         <v>13</v>
       </c>
-      <c r="P12" s="5">
+      <c r="P12" s="4">
         <v>14</v>
       </c>
-      <c r="Q12" s="5">
+      <c r="Q12" s="4">
         <v>15</v>
       </c>
-      <c r="R12" s="5">
+      <c r="R12" s="4">
         <v>16</v>
       </c>
-      <c r="S12" s="5">
+      <c r="S12" s="4">
         <v>17</v>
       </c>
-      <c r="T12" s="5">
+      <c r="T12" s="4">
         <v>18</v>
       </c>
-      <c r="U12" s="5">
+      <c r="U12" s="4">
         <v>19</v>
       </c>
-      <c r="V12" s="5">
+      <c r="V12" s="4">
         <v>20</v>
       </c>
-      <c r="W12" s="5">
+      <c r="W12" s="4">
         <v>21</v>
       </c>
-      <c r="X12" s="5">
+      <c r="X12" s="4">
         <v>22</v>
       </c>
-      <c r="Y12" s="5">
+      <c r="Y12" s="4">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="4"/>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="4"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
     </row>
     <row r="14" spans="1:25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
     </row>
     <row r="15" spans="1:25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
     </row>
     <row r="16" spans="1:25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4"/>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="4"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
     </row>
     <row r="17" spans="1:25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
     </row>
     <row r="18" spans="1:25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="4"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
     </row>
     <row r="19" spans="1:25">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
-      <c r="W19" s="4"/>
-      <c r="X19" s="4"/>
-      <c r="Y19" s="4"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
     </row>
     <row r="21" spans="1:25">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
-      <c r="V21" s="1"/>
-      <c r="W21" s="1"/>
-      <c r="X21" s="1"/>
-      <c r="Y21" s="1"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="15"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="15"/>
+      <c r="U21" s="15"/>
+      <c r="V21" s="15"/>
+      <c r="W21" s="15"/>
+      <c r="X21" s="15"/>
+      <c r="Y21" s="15"/>
     </row>
     <row r="22" spans="1:25">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="4">
         <v>0</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="4">
         <v>1</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="4">
         <v>2</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="4">
         <v>3</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="4">
         <v>4</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="4">
         <v>5</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22" s="4">
         <v>6</v>
       </c>
-      <c r="I22" s="5">
+      <c r="I22" s="4">
         <v>7</v>
       </c>
-      <c r="J22" s="5">
+      <c r="J22" s="4">
         <v>8</v>
       </c>
-      <c r="K22" s="5">
+      <c r="K22" s="4">
         <v>9</v>
       </c>
-      <c r="L22" s="5">
+      <c r="L22" s="4">
         <v>10</v>
       </c>
-      <c r="M22" s="5">
+      <c r="M22" s="4">
         <v>11</v>
       </c>
-      <c r="N22" s="5">
+      <c r="N22" s="4">
         <v>12</v>
       </c>
-      <c r="O22" s="5">
+      <c r="O22" s="4">
         <v>13</v>
       </c>
-      <c r="P22" s="5">
+      <c r="P22" s="4">
         <v>14</v>
       </c>
-      <c r="Q22" s="5">
+      <c r="Q22" s="4">
         <v>15</v>
       </c>
-      <c r="R22" s="5">
+      <c r="R22" s="4">
         <v>16</v>
       </c>
-      <c r="S22" s="5">
+      <c r="S22" s="4">
         <v>17</v>
       </c>
-      <c r="T22" s="5">
+      <c r="T22" s="4">
         <v>18</v>
       </c>
-      <c r="U22" s="5">
+      <c r="U22" s="4">
         <v>19</v>
       </c>
-      <c r="V22" s="5">
+      <c r="V22" s="4">
         <v>20</v>
       </c>
-      <c r="W22" s="5">
+      <c r="W22" s="4">
         <v>21</v>
       </c>
-      <c r="X22" s="5">
+      <c r="X22" s="4">
         <v>22</v>
       </c>
-      <c r="Y22" s="5">
+      <c r="Y22" s="4">
         <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:25">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="4"/>
-      <c r="U23" s="4"/>
-      <c r="V23" s="4"/>
-      <c r="W23" s="4"/>
-      <c r="X23" s="4"/>
-      <c r="Y23" s="4"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
     </row>
     <row r="24" spans="1:25">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="4"/>
-      <c r="U24" s="4"/>
-      <c r="V24" s="4"/>
-      <c r="W24" s="4"/>
-      <c r="X24" s="4"/>
-      <c r="Y24" s="4"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
     </row>
     <row r="25" spans="1:25">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
-      <c r="S25" s="4"/>
-      <c r="T25" s="4"/>
-      <c r="U25" s="4"/>
-      <c r="V25" s="4"/>
-      <c r="W25" s="4"/>
-      <c r="X25" s="4"/>
-      <c r="Y25" s="4"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
     </row>
     <row r="26" spans="1:25">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
-      <c r="S26" s="4"/>
-      <c r="T26" s="4"/>
-      <c r="U26" s="4"/>
-      <c r="V26" s="4"/>
-      <c r="W26" s="4"/>
-      <c r="X26" s="4"/>
-      <c r="Y26" s="4"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
     </row>
     <row r="27" spans="1:25">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="4"/>
-      <c r="S27" s="4"/>
-      <c r="T27" s="4"/>
-      <c r="U27" s="4"/>
-      <c r="V27" s="4"/>
-      <c r="W27" s="4"/>
-      <c r="X27" s="4"/>
-      <c r="Y27" s="4"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
     </row>
     <row r="28" spans="1:25">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
-      <c r="S28" s="4"/>
-      <c r="T28" s="4"/>
-      <c r="U28" s="4"/>
-      <c r="V28" s="4"/>
-      <c r="W28" s="4"/>
-      <c r="X28" s="4"/>
-      <c r="Y28" s="4"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
     </row>
     <row r="29" spans="1:25">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
-      <c r="S29" s="4"/>
-      <c r="T29" s="4"/>
-      <c r="U29" s="4"/>
-      <c r="V29" s="4"/>
-      <c r="W29" s="4"/>
-      <c r="X29" s="4"/>
-      <c r="Y29" s="4"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
     </row>
     <row r="33" spans="1:25">
-      <c r="A33" s="2">
+      <c r="A33" s="1">
         <v>43132</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="1"/>
-      <c r="S33" s="1"/>
-      <c r="T33" s="1"/>
-      <c r="U33" s="1"/>
-      <c r="V33" s="1"/>
-      <c r="W33" s="1"/>
-      <c r="X33" s="1"/>
-      <c r="Y33" s="1"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="15"/>
+      <c r="P33" s="15"/>
+      <c r="Q33" s="15"/>
+      <c r="R33" s="15"/>
+      <c r="S33" s="15"/>
+      <c r="T33" s="15"/>
+      <c r="U33" s="15"/>
+      <c r="V33" s="15"/>
+      <c r="W33" s="15"/>
+      <c r="X33" s="15"/>
+      <c r="Y33" s="15"/>
     </row>
     <row r="34" spans="1:25">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34" s="4">
         <v>0</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="4">
         <v>1</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="4">
         <v>2</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E34" s="4">
         <v>3</v>
       </c>
-      <c r="F34" s="5">
+      <c r="F34" s="4">
         <v>4</v>
       </c>
-      <c r="G34" s="5">
+      <c r="G34" s="4">
         <v>5</v>
       </c>
-      <c r="H34" s="5">
+      <c r="H34" s="4">
         <v>6</v>
       </c>
-      <c r="I34" s="5">
+      <c r="I34" s="4">
         <v>7</v>
       </c>
-      <c r="J34" s="5">
+      <c r="J34" s="4">
         <v>8</v>
       </c>
-      <c r="K34" s="5">
+      <c r="K34" s="4">
         <v>9</v>
       </c>
-      <c r="L34" s="5">
+      <c r="L34" s="4">
         <v>10</v>
       </c>
-      <c r="M34" s="5">
+      <c r="M34" s="4">
         <v>11</v>
       </c>
-      <c r="N34" s="5">
+      <c r="N34" s="4">
         <v>12</v>
       </c>
-      <c r="O34" s="5">
+      <c r="O34" s="4">
         <v>13</v>
       </c>
-      <c r="P34" s="5">
+      <c r="P34" s="4">
         <v>14</v>
       </c>
-      <c r="Q34" s="5">
+      <c r="Q34" s="4">
         <v>15</v>
       </c>
-      <c r="R34" s="5">
+      <c r="R34" s="4">
         <v>16</v>
       </c>
-      <c r="S34" s="5">
+      <c r="S34" s="4">
         <v>17</v>
       </c>
-      <c r="T34" s="5">
+      <c r="T34" s="4">
         <v>18</v>
       </c>
-      <c r="U34" s="5">
+      <c r="U34" s="4">
         <v>19</v>
       </c>
-      <c r="V34" s="5">
+      <c r="V34" s="4">
         <v>20</v>
       </c>
-      <c r="W34" s="5">
+      <c r="W34" s="4">
         <v>21</v>
       </c>
-      <c r="X34" s="5">
+      <c r="X34" s="4">
         <v>22</v>
       </c>
-      <c r="Y34" s="5">
+      <c r="Y34" s="4">
         <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:25">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="4"/>
-      <c r="R35" s="4"/>
-      <c r="S35" s="4"/>
-      <c r="T35" s="4"/>
-      <c r="U35" s="4"/>
-      <c r="V35" s="4"/>
-      <c r="W35" s="4"/>
-      <c r="X35" s="4"/>
-      <c r="Y35" s="4"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="3"/>
+      <c r="W35" s="3"/>
+      <c r="X35" s="3"/>
+      <c r="Y35" s="3"/>
     </row>
     <row r="36" spans="1:25">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
-      <c r="O36" s="4"/>
-      <c r="P36" s="4"/>
-      <c r="Q36" s="4"/>
-      <c r="R36" s="4"/>
-      <c r="S36" s="4"/>
-      <c r="T36" s="4"/>
-      <c r="U36" s="4"/>
-      <c r="V36" s="4"/>
-      <c r="W36" s="4"/>
-      <c r="X36" s="4"/>
-      <c r="Y36" s="4"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="3"/>
+      <c r="W36" s="3"/>
+      <c r="X36" s="3"/>
+      <c r="Y36" s="3"/>
     </row>
     <row r="37" spans="1:25">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
-      <c r="N37" s="4"/>
-      <c r="O37" s="4"/>
-      <c r="P37" s="4"/>
-      <c r="Q37" s="4"/>
-      <c r="R37" s="4"/>
-      <c r="S37" s="4"/>
-      <c r="T37" s="4"/>
-      <c r="U37" s="4"/>
-      <c r="V37" s="4"/>
-      <c r="W37" s="4"/>
-      <c r="X37" s="4"/>
-      <c r="Y37" s="4"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
+      <c r="V37" s="3"/>
+      <c r="W37" s="3"/>
+      <c r="X37" s="3"/>
+      <c r="Y37" s="3"/>
     </row>
     <row r="38" spans="1:25">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
-      <c r="N38" s="4"/>
-      <c r="O38" s="4"/>
-      <c r="P38" s="4"/>
-      <c r="Q38" s="4"/>
-      <c r="R38" s="4"/>
-      <c r="S38" s="4"/>
-      <c r="T38" s="4"/>
-      <c r="U38" s="4"/>
-      <c r="V38" s="4"/>
-      <c r="W38" s="4"/>
-      <c r="X38" s="4"/>
-      <c r="Y38" s="4"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
+      <c r="V38" s="3"/>
+      <c r="W38" s="3"/>
+      <c r="X38" s="3"/>
+      <c r="Y38" s="3"/>
     </row>
     <row r="39" spans="1:25">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
-      <c r="M39" s="4"/>
-      <c r="N39" s="4"/>
-      <c r="O39" s="4"/>
-      <c r="P39" s="4"/>
-      <c r="Q39" s="4"/>
-      <c r="R39" s="4"/>
-      <c r="S39" s="4"/>
-      <c r="T39" s="4"/>
-      <c r="U39" s="4"/>
-      <c r="V39" s="4"/>
-      <c r="W39" s="4"/>
-      <c r="X39" s="4"/>
-      <c r="Y39" s="4"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
     </row>
     <row r="40" spans="1:25">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
-      <c r="N40" s="4"/>
-      <c r="O40" s="4"/>
-      <c r="P40" s="4"/>
-      <c r="Q40" s="4"/>
-      <c r="R40" s="4"/>
-      <c r="S40" s="4"/>
-      <c r="T40" s="4"/>
-      <c r="U40" s="4"/>
-      <c r="V40" s="4"/>
-      <c r="W40" s="4"/>
-      <c r="X40" s="4"/>
-      <c r="Y40" s="4"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
     </row>
     <row r="41" spans="1:25">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
-      <c r="N41" s="4"/>
-      <c r="O41" s="4"/>
-      <c r="P41" s="4"/>
-      <c r="Q41" s="4"/>
-      <c r="R41" s="4"/>
-      <c r="S41" s="4"/>
-      <c r="T41" s="4"/>
-      <c r="U41" s="4"/>
-      <c r="V41" s="4"/>
-      <c r="W41" s="4"/>
-      <c r="X41" s="4"/>
-      <c r="Y41" s="4"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="3"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="3"/>
+      <c r="U41" s="3"/>
+      <c r="V41" s="3"/>
+      <c r="W41" s="3"/>
+      <c r="X41" s="3"/>
+      <c r="Y41" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Time Table Feb 2018.xlsx
+++ b/Time Table Feb 2018.xlsx
@@ -22811,66 +22811,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>371880</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>399960</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>255240</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>368640</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="367" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6509520" y="20880360"/>
-          <a:ext cx="1929600" cy="416520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="4F81BD"/>
-        </a:solidFill>
-        <a:ln w="25560">
-          <a:solidFill>
-            <a:srgbClr val="3A5F8B"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>รับผิดชอบบ้าน ห้อง เสื้อผ้า เพื่อกฏแรงดึงดูด</a:t>
-          </a:r>
-          <a:endParaRPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>577560</xdr:colOff>
       <xdr:row>42</xdr:row>
@@ -23881,66 +23821,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>280440</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>392040</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>232200</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>361080</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="385" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15284160" y="19977120"/>
-          <a:ext cx="1315800" cy="416880"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="4F81BD"/>
-        </a:solidFill>
-        <a:ln w="25560">
-          <a:solidFill>
-            <a:srgbClr val="3A5F8B"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>ศึกษากฏแรงดึงดูด</a:t>
-          </a:r>
-          <a:endParaRPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>196560</xdr:colOff>
       <xdr:row>47</xdr:row>
@@ -23992,66 +23872,6 @@
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>ผ่อนคลาย ช่วยตัวเอง</a:t>
-          </a:r>
-          <a:endParaRPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>139680</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>407520</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>382680</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="387" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9687240" y="20440440"/>
-          <a:ext cx="2058480" cy="422640"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="4F81BD"/>
-        </a:solidFill>
-        <a:ln w="25560">
-          <a:solidFill>
-            <a:srgbClr val="3A5F8B"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>Check การบ้าน งาน ให้ดีๆ ถ้ามีก็ทำ ถ้าไม่มีก็แวะที่ทำงานใหม่</a:t>
           </a:r>
           <a:endParaRPr/>
         </a:p>
@@ -25260,66 +25080,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>288000</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>407880</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>597960</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>382320</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="408" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8471880" y="20888280"/>
-          <a:ext cx="991800" cy="422280"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="4F81BD"/>
-        </a:solidFill>
-        <a:ln w="25560">
-          <a:solidFill>
-            <a:srgbClr val="3A5F8B"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>เพิ่มปฏิสัมพันธ์กับคนในบ้าน</a:t>
-          </a:r>
-          <a:endParaRPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>608280</xdr:colOff>
       <xdr:row>43</xdr:row>
@@ -29640,16 +29400,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>259080</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>384540</xdr:rowOff>
+      <xdr:rowOff>407400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>525060</xdr:colOff>
+      <xdr:colOff>166920</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>355380</xdr:rowOff>
+      <xdr:rowOff>378240</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -29658,7 +29418,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8877300" y="19724100"/>
+          <a:off x="8519160" y="19746960"/>
           <a:ext cx="928920" cy="412800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -30690,16 +30450,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>81060</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>142020</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>373380</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>452940</xdr:colOff>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>513900</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>342060</xdr:rowOff>
+      <xdr:rowOff>44880</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -30708,7 +30468,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7373400" y="19712940"/>
+          <a:off x="11412000" y="19415760"/>
           <a:ext cx="1034820" cy="410640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -30761,16 +30521,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>355380</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>477300</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>434340</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>64320</xdr:colOff>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>186240</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>403020</xdr:rowOff>
+      <xdr:rowOff>387780</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -30779,7 +30539,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10299480" y="19773900"/>
+          <a:off x="7106700" y="19758660"/>
           <a:ext cx="1034820" cy="410640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -30840,16 +30600,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>279180</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>439200</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>148140</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>434340</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>651060</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>403020</xdr:rowOff>
+      <xdr:rowOff>37260</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -30858,7 +30618,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8234460" y="20215860"/>
+          <a:off x="11046240" y="19408140"/>
           <a:ext cx="1034820" cy="410640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -31209,6 +30969,439 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12914400" y="19314840"/>
+          <a:ext cx="637740" cy="416760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="4F81BD"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>เดินทาง</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>431580</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>140520</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>387780</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="490" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9712740" y="19758660"/>
+          <a:ext cx="1034820" cy="410640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C0504D"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ทำ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Web App</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> Dev</a:t>
+          </a:r>
+          <a:endParaRPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>146760</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>344520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>620700</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>313560</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="491" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5450280" y="20126040"/>
+          <a:ext cx="473940" cy="411000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="77933C"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>คอมใหญ่</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>469680</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>396240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>178620</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>364920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="492" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9750840" y="20177760"/>
+          <a:ext cx="1034820" cy="410640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C0504D"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ทำ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Web App</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> Dev</a:t>
+          </a:r>
+          <a:endParaRPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>369300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>212640</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>340140</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="493" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8564880" y="20150820"/>
+          <a:ext cx="928920" cy="412800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>ผ่อนคลาย อัพอารมณ์ตัวเอง</a:t>
+          </a:r>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>385860</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>434340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>94800</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>403020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="494" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7678200" y="20657820"/>
+          <a:ext cx="1034820" cy="410640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C0504D"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ทำ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Web App</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> Dev</a:t>
+          </a:r>
+          <a:endParaRPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>303300</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>409620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>278100</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>384420</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="503" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6932700" y="20633100"/>
           <a:ext cx="637740" cy="416760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -52546,7 +52739,7 @@
   <dimension ref="A1:AB62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E42" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P47" sqref="P47"/>
+      <selection activeCell="N50" sqref="N50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>

--- a/Time Table Feb 2018.xlsx
+++ b/Time Table Feb 2018.xlsx
@@ -27973,66 +27973,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>20520</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>79920</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>52920</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>155160</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="463" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9568080" y="21958560"/>
-          <a:ext cx="2078640" cy="410760"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="C0504D"/>
-        </a:solidFill>
-        <a:ln w="25560">
-          <a:solidFill>
-            <a:srgbClr val="3A5F8B"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>สอบ Soft Pat Lab จันทร์ที่ 5</a:t>
-          </a:r>
-          <a:endParaRPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>630720</xdr:colOff>
       <xdr:row>43</xdr:row>
@@ -28084,66 +28024,6 @@
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>สอบ HCI E507</a:t>
-          </a:r>
-          <a:endParaRPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>256740</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>22380</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>270240</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>107700</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="466" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9537900" y="22303260"/>
-          <a:ext cx="2002320" cy="420600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="C0504D"/>
-        </a:solidFill>
-        <a:ln w="25560">
-          <a:solidFill>
-            <a:srgbClr val="3A5F8B"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>สอบ Com Sec Discuss Tue 6</a:t>
           </a:r>
           <a:endParaRPr/>
         </a:p>
@@ -31089,16 +30969,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>146760</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>344520</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>620700</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>436320</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>313560</xdr:rowOff>
+      <xdr:rowOff>420720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>247320</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>389760</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -31107,7 +30987,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5450280" y="20126040"/>
+          <a:off x="6402780" y="20644200"/>
           <a:ext cx="473940" cy="411000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -52739,7 +52619,7 @@
   <dimension ref="A1:AB62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E42" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N50" sqref="N50"/>
+      <selection activeCell="K52" sqref="K52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
